--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Tnfsf13-Fas.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H2">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J2">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.104042</v>
+        <v>3.042047666666666</v>
       </c>
       <c r="N2">
-        <v>18.312126</v>
+        <v>9.126142999999999</v>
       </c>
       <c r="O2">
-        <v>0.2173731183071527</v>
+        <v>0.1400448830218481</v>
       </c>
       <c r="P2">
-        <v>0.2173731183071527</v>
+        <v>0.140044883021848</v>
       </c>
       <c r="Q2">
-        <v>7.042664607701333</v>
+        <v>1.528179743461222</v>
       </c>
       <c r="R2">
-        <v>63.383981469312</v>
+        <v>13.753617691151</v>
       </c>
       <c r="S2">
-        <v>0.02813454223510057</v>
+        <v>0.009125168918018877</v>
       </c>
       <c r="T2">
-        <v>0.02813454223510057</v>
+        <v>0.009125168918018874</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H3">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I3">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J3">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>29.564835</v>
       </c>
       <c r="O3">
-        <v>0.3509478023571075</v>
+        <v>0.4536860598322029</v>
       </c>
       <c r="P3">
-        <v>0.3509478023571075</v>
+        <v>0.4536860598322028</v>
       </c>
       <c r="Q3">
-        <v>11.37034646261333</v>
+        <v>4.950654615621667</v>
       </c>
       <c r="R3">
-        <v>102.33311816352</v>
+        <v>44.555891540595</v>
       </c>
       <c r="S3">
-        <v>0.04542307643477768</v>
+        <v>0.02956167938726761</v>
       </c>
       <c r="T3">
-        <v>0.04542307643477768</v>
+        <v>0.02956167938726761</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H4">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I4">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J4">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.320282333333334</v>
+        <v>4.111990666666666</v>
       </c>
       <c r="N4">
-        <v>9.960847000000001</v>
+        <v>12.335972</v>
       </c>
       <c r="O4">
-        <v>0.1182397048475118</v>
+        <v>0.1893011928150581</v>
       </c>
       <c r="P4">
-        <v>0.1182397048475118</v>
+        <v>0.1893011928150581</v>
       </c>
       <c r="Q4">
-        <v>3.830844361251556</v>
+        <v>2.065668106044889</v>
       </c>
       <c r="R4">
-        <v>34.477599251264</v>
+        <v>18.591012954404</v>
       </c>
       <c r="S4">
-        <v>0.01530373210728644</v>
+        <v>0.01233465531582742</v>
       </c>
       <c r="T4">
-        <v>0.01530373210728644</v>
+        <v>0.01233465531582741</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H5">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I5">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J5">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.593769333333333</v>
+        <v>2.157352</v>
       </c>
       <c r="N5">
-        <v>4.781308</v>
+        <v>6.472056</v>
       </c>
       <c r="O5">
-        <v>0.05675626246493366</v>
+        <v>0.09931669111812624</v>
       </c>
       <c r="P5">
-        <v>0.05675626246493366</v>
+        <v>0.09931669111812623</v>
       </c>
       <c r="Q5">
-        <v>1.838844306232889</v>
+        <v>1.083750811021333</v>
       </c>
       <c r="R5">
-        <v>16.549598756096</v>
+        <v>9.753757299192001</v>
       </c>
       <c r="S5">
-        <v>0.007345947262760439</v>
+        <v>0.006471365202898704</v>
       </c>
       <c r="T5">
-        <v>0.007345947262760438</v>
+        <v>0.006471365202898703</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.153770666666667</v>
+        <v>0.5023523333333334</v>
       </c>
       <c r="H6">
-        <v>3.461312</v>
+        <v>1.507057</v>
       </c>
       <c r="I6">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="J6">
-        <v>0.1294297218267159</v>
+        <v>0.06515888850144765</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.207903666666667</v>
+        <v>2.555612666666667</v>
       </c>
       <c r="N6">
-        <v>21.623711</v>
+        <v>7.666838</v>
       </c>
       <c r="O6">
-        <v>0.2566831120232943</v>
+        <v>0.1176511732127647</v>
       </c>
       <c r="P6">
-        <v>0.2566831120232942</v>
+        <v>0.1176511732127646</v>
       </c>
       <c r="Q6">
-        <v>8.316267818759112</v>
+        <v>1.283817986196222</v>
       </c>
       <c r="R6">
-        <v>74.846410368832</v>
+        <v>11.554361875766</v>
       </c>
       <c r="S6">
-        <v>0.03322242378679072</v>
+        <v>0.007666019677435036</v>
       </c>
       <c r="T6">
-        <v>0.03322242378679072</v>
+        <v>0.007666019677435035</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.682841</v>
       </c>
       <c r="I7">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J7">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.104042</v>
+        <v>3.042047666666666</v>
       </c>
       <c r="N7">
-        <v>18.312126</v>
+        <v>9.126142999999999</v>
       </c>
       <c r="O7">
-        <v>0.2173731183071527</v>
+        <v>0.1400448830218481</v>
       </c>
       <c r="P7">
-        <v>0.2173731183071527</v>
+        <v>0.140044883021848</v>
       </c>
       <c r="Q7">
-        <v>3.424044047774</v>
+        <v>1.706427512473667</v>
       </c>
       <c r="R7">
-        <v>30.81639642996599</v>
+        <v>15.357847612263</v>
       </c>
       <c r="S7">
-        <v>0.01367861700692075</v>
+        <v>0.0101895338976348</v>
       </c>
       <c r="T7">
-        <v>0.01367861700692075</v>
+        <v>0.01018953389763479</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.682841</v>
       </c>
       <c r="I8">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J8">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>29.564835</v>
       </c>
       <c r="O8">
-        <v>0.3509478023571075</v>
+        <v>0.4536860598322029</v>
       </c>
       <c r="P8">
-        <v>0.3509478023571075</v>
+        <v>0.4536860598322028</v>
       </c>
       <c r="Q8">
         <v>5.528101832915</v>
@@ -948,10 +948,10 @@
         <v>49.752916496235</v>
       </c>
       <c r="S8">
-        <v>0.02208405811743573</v>
+        <v>0.03300977076630068</v>
       </c>
       <c r="T8">
-        <v>0.02208405811743573</v>
+        <v>0.03300977076630068</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.682841</v>
       </c>
       <c r="I9">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J9">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.320282333333334</v>
+        <v>4.111990666666666</v>
       </c>
       <c r="N9">
-        <v>9.960847000000001</v>
+        <v>12.335972</v>
       </c>
       <c r="O9">
-        <v>0.1182397048475118</v>
+        <v>0.1893011928150581</v>
       </c>
       <c r="P9">
-        <v>0.1182397048475118</v>
+        <v>0.1893011928150581</v>
       </c>
       <c r="Q9">
-        <v>1.862502414036333</v>
+        <v>2.306608828494666</v>
       </c>
       <c r="R9">
-        <v>16.762521726327</v>
+        <v>20.759479456452</v>
       </c>
       <c r="S9">
-        <v>0.007440458370455488</v>
+        <v>0.01377337664490614</v>
       </c>
       <c r="T9">
-        <v>0.007440458370455486</v>
+        <v>0.01377337664490614</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.682841</v>
       </c>
       <c r="I10">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J10">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.593769333333333</v>
+        <v>2.157352</v>
       </c>
       <c r="N10">
-        <v>4.781308</v>
+        <v>6.472056</v>
       </c>
       <c r="O10">
-        <v>0.05675626246493366</v>
+        <v>0.09931669111812624</v>
       </c>
       <c r="P10">
-        <v>0.05675626246493366</v>
+        <v>0.09931669111812623</v>
       </c>
       <c r="Q10">
-        <v>0.8940201262253333</v>
+        <v>1.210160132344</v>
       </c>
       <c r="R10">
-        <v>8.046181136027998</v>
+        <v>10.891441191096</v>
       </c>
       <c r="S10">
-        <v>0.003571495790501127</v>
+        <v>0.007226188982507798</v>
       </c>
       <c r="T10">
-        <v>0.003571495790501127</v>
+        <v>0.007226188982507798</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.682841</v>
       </c>
       <c r="I11">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716338</v>
       </c>
       <c r="J11">
-        <v>0.06292690243138796</v>
+        <v>0.07275905893716339</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.207903666666667</v>
+        <v>2.555612666666667</v>
       </c>
       <c r="N11">
-        <v>21.623711</v>
+        <v>7.666838</v>
       </c>
       <c r="O11">
-        <v>0.2566831120232943</v>
+        <v>0.1176511732127647</v>
       </c>
       <c r="P11">
-        <v>0.2566831120232942</v>
+        <v>0.1176511732127646</v>
       </c>
       <c r="Q11">
-        <v>4.043251938105667</v>
+        <v>1.433563258528667</v>
       </c>
       <c r="R11">
-        <v>36.389267442951</v>
+        <v>12.902069326758</v>
       </c>
       <c r="S11">
-        <v>0.01615227314607487</v>
+        <v>0.008560188645813961</v>
       </c>
       <c r="T11">
-        <v>0.01615227314607486</v>
+        <v>0.008560188645813961</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H12">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I12">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J12">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.104042</v>
+        <v>3.042047666666666</v>
       </c>
       <c r="N12">
-        <v>18.312126</v>
+        <v>9.126142999999999</v>
       </c>
       <c r="O12">
-        <v>0.2173731183071527</v>
+        <v>0.1400448830218481</v>
       </c>
       <c r="P12">
-        <v>0.2173731183071527</v>
+        <v>0.140044883021848</v>
       </c>
       <c r="Q12">
-        <v>23.42471490878866</v>
+        <v>8.656656685492111</v>
       </c>
       <c r="R12">
-        <v>210.822434179098</v>
+        <v>77.909910169429</v>
       </c>
       <c r="S12">
-        <v>0.0935787330019697</v>
+        <v>0.05169120639009269</v>
       </c>
       <c r="T12">
-        <v>0.09357873300196969</v>
+        <v>0.05169120639009267</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H13">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I13">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J13">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>29.564835</v>
       </c>
       <c r="O13">
-        <v>0.3509478023571075</v>
+        <v>0.4536860598322029</v>
       </c>
       <c r="P13">
-        <v>0.3509478023571075</v>
+        <v>0.4536860598322028</v>
       </c>
       <c r="Q13">
-        <v>37.81908398841166</v>
+        <v>28.04389834327833</v>
       </c>
       <c r="R13">
-        <v>340.371755895705</v>
+        <v>252.395085089505</v>
       </c>
       <c r="S13">
-        <v>0.1510823921106861</v>
+        <v>0.16745759822896</v>
       </c>
       <c r="T13">
-        <v>0.1510823921106861</v>
+        <v>0.16745759822896</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H14">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I14">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J14">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.320282333333334</v>
+        <v>4.111990666666666</v>
       </c>
       <c r="N14">
-        <v>9.960847000000001</v>
+        <v>12.335972</v>
       </c>
       <c r="O14">
-        <v>0.1182397048475118</v>
+        <v>0.1893011928150581</v>
       </c>
       <c r="P14">
-        <v>0.1182397048475118</v>
+        <v>0.1893011928150581</v>
       </c>
       <c r="Q14">
-        <v>12.74183026182011</v>
+        <v>11.70135888576844</v>
       </c>
       <c r="R14">
-        <v>114.676472356381</v>
+        <v>105.312229971916</v>
       </c>
       <c r="S14">
-        <v>0.05090197838778911</v>
+        <v>0.06987193545777273</v>
       </c>
       <c r="T14">
-        <v>0.05090197838778911</v>
+        <v>0.06987193545777272</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H15">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I15">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J15">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.593769333333333</v>
+        <v>2.157352</v>
       </c>
       <c r="N15">
-        <v>4.781308</v>
+        <v>6.472056</v>
       </c>
       <c r="O15">
-        <v>0.05675626246493366</v>
+        <v>0.09931669111812624</v>
       </c>
       <c r="P15">
-        <v>0.05675626246493366</v>
+        <v>0.09931669111812623</v>
       </c>
       <c r="Q15">
-        <v>6.116208286853777</v>
+        <v>6.139106832018667</v>
       </c>
       <c r="R15">
-        <v>55.045874581684</v>
+        <v>55.25196148816801</v>
       </c>
       <c r="S15">
-        <v>0.02443346800541793</v>
+        <v>0.03665824461267347</v>
       </c>
       <c r="T15">
-        <v>0.02443346800541793</v>
+        <v>0.03665824461267347</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.837574333333333</v>
+        <v>2.845667666666667</v>
       </c>
       <c r="H16">
-        <v>11.512723</v>
+        <v>8.537003</v>
       </c>
       <c r="I16">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="J16">
-        <v>0.4304981854736105</v>
+        <v>0.3691045704399529</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.207903666666667</v>
+        <v>2.555612666666667</v>
       </c>
       <c r="N16">
-        <v>21.623711</v>
+        <v>7.666838</v>
       </c>
       <c r="O16">
-        <v>0.2566831120232943</v>
+        <v>0.1176511732127647</v>
       </c>
       <c r="P16">
-        <v>0.2566831120232942</v>
+        <v>0.1176511732127646</v>
       </c>
       <c r="Q16">
-        <v>27.66086610833922</v>
+        <v>7.272424334057112</v>
       </c>
       <c r="R16">
-        <v>248.947794975053</v>
+        <v>65.451819006514</v>
       </c>
       <c r="S16">
-        <v>0.1105016139677477</v>
+        <v>0.04342558575045399</v>
       </c>
       <c r="T16">
-        <v>0.1105016139677477</v>
+        <v>0.04342558575045398</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H17">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I17">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J17">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.104042</v>
+        <v>3.042047666666666</v>
       </c>
       <c r="N17">
-        <v>18.312126</v>
+        <v>9.126142999999999</v>
       </c>
       <c r="O17">
-        <v>0.2173731183071527</v>
+        <v>0.1400448830218481</v>
       </c>
       <c r="P17">
-        <v>0.2173731183071527</v>
+        <v>0.140044883021848</v>
       </c>
       <c r="Q17">
-        <v>1.115715108886</v>
+        <v>0.3511435621633333</v>
       </c>
       <c r="R17">
-        <v>10.041435979974</v>
+        <v>3.16029205947</v>
       </c>
       <c r="S17">
-        <v>0.004457138824837277</v>
+        <v>0.002096771883625342</v>
       </c>
       <c r="T17">
-        <v>0.004457138824837276</v>
+        <v>0.002096771883625341</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G18">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H18">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I18">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J18">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>29.564835</v>
       </c>
       <c r="O18">
-        <v>0.3509478023571075</v>
+        <v>0.4536860598322029</v>
       </c>
       <c r="P18">
-        <v>0.3509478023571075</v>
+        <v>0.4536860598322028</v>
       </c>
       <c r="Q18">
-        <v>1.801316411935</v>
+        <v>1.13755630135</v>
       </c>
       <c r="R18">
-        <v>16.211847707415</v>
+        <v>10.23800671215</v>
       </c>
       <c r="S18">
-        <v>0.007196028136132746</v>
+        <v>0.006792652139246823</v>
       </c>
       <c r="T18">
-        <v>0.007196028136132746</v>
+        <v>0.006792652139246823</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G19">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H19">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I19">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J19">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>3.320282333333334</v>
+        <v>4.111990666666666</v>
       </c>
       <c r="N19">
-        <v>9.960847000000001</v>
+        <v>12.335972</v>
       </c>
       <c r="O19">
-        <v>0.1182397048475118</v>
+        <v>0.1893011928150581</v>
       </c>
       <c r="P19">
-        <v>0.1182397048475118</v>
+        <v>0.1893011928150581</v>
       </c>
       <c r="Q19">
-        <v>0.6068911657336667</v>
+        <v>0.4746470826533333</v>
       </c>
       <c r="R19">
-        <v>5.462020491603</v>
+        <v>4.27182374388</v>
       </c>
       <c r="S19">
-        <v>0.002424452403394555</v>
+        <v>0.002834244351287227</v>
       </c>
       <c r="T19">
-        <v>0.002424452403394555</v>
+        <v>0.002834244351287227</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H20">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I20">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J20">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.593769333333333</v>
+        <v>2.157352</v>
       </c>
       <c r="N20">
-        <v>4.781308</v>
+        <v>6.472056</v>
       </c>
       <c r="O20">
-        <v>0.05675626246493366</v>
+        <v>0.09931669111812624</v>
       </c>
       <c r="P20">
-        <v>0.05675626246493366</v>
+        <v>0.09931669111812623</v>
       </c>
       <c r="Q20">
-        <v>0.2913139400546667</v>
+        <v>0.24902314136</v>
       </c>
       <c r="R20">
-        <v>2.621825460492</v>
+        <v>2.24120827224</v>
       </c>
       <c r="S20">
-        <v>0.001163761843944557</v>
+        <v>0.00148698360852429</v>
       </c>
       <c r="T20">
-        <v>0.001163761843944557</v>
+        <v>0.00148698360852429</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.182783</v>
+        <v>0.11543</v>
       </c>
       <c r="H21">
-        <v>0.548349</v>
+        <v>0.34629</v>
       </c>
       <c r="I21">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="J21">
-        <v>0.02050455391884864</v>
+        <v>0.01497214206175765</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>7.207903666666667</v>
+        <v>2.555612666666667</v>
       </c>
       <c r="N21">
-        <v>21.623711</v>
+        <v>7.666838</v>
       </c>
       <c r="O21">
-        <v>0.2566831120232943</v>
+        <v>0.1176511732127647</v>
       </c>
       <c r="P21">
-        <v>0.2566831120232942</v>
+        <v>0.1176511732127646</v>
       </c>
       <c r="Q21">
-        <v>1.317482255904333</v>
+        <v>0.2949943701133333</v>
       </c>
       <c r="R21">
-        <v>11.857340303139</v>
+        <v>2.65494933102</v>
       </c>
       <c r="S21">
-        <v>0.005263172710539503</v>
+        <v>0.001761490079073969</v>
       </c>
       <c r="T21">
-        <v>0.005263172710539502</v>
+        <v>0.001761490079073969</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H22">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I22">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J22">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.104042</v>
+        <v>3.042047666666666</v>
       </c>
       <c r="N22">
-        <v>18.312126</v>
+        <v>9.126142999999999</v>
       </c>
       <c r="O22">
-        <v>0.2173731183071527</v>
+        <v>0.1400448830218481</v>
       </c>
       <c r="P22">
-        <v>0.2173731183071527</v>
+        <v>0.140044883021848</v>
       </c>
       <c r="Q22">
-        <v>19.40590114725733</v>
+        <v>11.21072035980578</v>
       </c>
       <c r="R22">
-        <v>174.653110325316</v>
+        <v>100.896483238252</v>
       </c>
       <c r="S22">
-        <v>0.07752408723832444</v>
+        <v>0.06694220193247637</v>
       </c>
       <c r="T22">
-        <v>0.07752408723832441</v>
+        <v>0.06694220193247635</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H23">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I23">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J23">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>29.564835</v>
       </c>
       <c r="O23">
-        <v>0.3509478023571075</v>
+        <v>0.4536860598322029</v>
       </c>
       <c r="P23">
-        <v>0.3509478023571075</v>
+        <v>0.4536860598322028</v>
       </c>
       <c r="Q23">
-        <v>31.33072945462333</v>
+        <v>36.31798205099333</v>
       </c>
       <c r="R23">
-        <v>281.9765650916099</v>
+        <v>326.86183845894</v>
       </c>
       <c r="S23">
-        <v>0.1251622475580753</v>
+        <v>0.2168643593104277</v>
       </c>
       <c r="T23">
-        <v>0.1251622475580753</v>
+        <v>0.2168643593104277</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H24">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I24">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J24">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.320282333333334</v>
+        <v>4.111990666666666</v>
       </c>
       <c r="N24">
-        <v>9.960847000000001</v>
+        <v>12.335972</v>
       </c>
       <c r="O24">
-        <v>0.1182397048475118</v>
+        <v>0.1893011928150581</v>
       </c>
       <c r="P24">
-        <v>0.1182397048475118</v>
+        <v>0.1893011928150581</v>
       </c>
       <c r="Q24">
-        <v>10.55580396426689</v>
+        <v>15.15373279362311</v>
       </c>
       <c r="R24">
-        <v>95.00223567840199</v>
+        <v>136.383595142608</v>
       </c>
       <c r="S24">
-        <v>0.04216908357858625</v>
+        <v>0.09048698104526461</v>
       </c>
       <c r="T24">
-        <v>0.04216908357858624</v>
+        <v>0.09048698104526461</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H25">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I25">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J25">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.593769333333333</v>
+        <v>2.157352</v>
       </c>
       <c r="N25">
-        <v>4.781308</v>
+        <v>6.472056</v>
       </c>
       <c r="O25">
-        <v>0.05675626246493366</v>
+        <v>0.09931669111812624</v>
       </c>
       <c r="P25">
-        <v>0.05675626246493366</v>
+        <v>0.09931669111812623</v>
       </c>
       <c r="Q25">
-        <v>5.066893401814221</v>
+        <v>7.950391525642667</v>
       </c>
       <c r="R25">
-        <v>45.60204061632799</v>
+        <v>71.55352373078401</v>
       </c>
       <c r="S25">
-        <v>0.02024158956230962</v>
+        <v>0.04747390871152198</v>
       </c>
       <c r="T25">
-        <v>0.02024158956230961</v>
+        <v>0.04747390871152198</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.179188666666666</v>
+        <v>3.685254666666667</v>
       </c>
       <c r="H26">
-        <v>9.537565999999998</v>
+        <v>11.055764</v>
       </c>
       <c r="I26">
-        <v>0.3566406363494372</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="J26">
-        <v>0.3566406363494371</v>
+        <v>0.4780053400596784</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>7.207903666666667</v>
+        <v>2.555612666666667</v>
       </c>
       <c r="N26">
-        <v>21.623711</v>
+        <v>7.666838</v>
       </c>
       <c r="O26">
-        <v>0.2566831120232943</v>
+        <v>0.1176511732127647</v>
       </c>
       <c r="P26">
-        <v>0.2566831120232942</v>
+        <v>0.1176511732127646</v>
       </c>
       <c r="Q26">
-        <v>22.91528564749177</v>
+        <v>9.418083506025779</v>
       </c>
       <c r="R26">
-        <v>206.237570827426</v>
+        <v>84.762751554232</v>
       </c>
       <c r="S26">
-        <v>0.09154362841214155</v>
+        <v>0.05623788905998769</v>
       </c>
       <c r="T26">
-        <v>0.0915436284121415</v>
+        <v>0.05623788905998769</v>
       </c>
     </row>
   </sheetData>
